--- a/STATISTICS IN EXCEL/AASIGEMENT/STATE ASSIGEMENT.xlsx
+++ b/STATISTICS IN EXCEL/AASIGEMENT/STATE ASSIGEMENT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEET HIRPARA\Desktop\DA GITHUB\meethirpara9836\STATISTICS IN EXCEL\AASIGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8923594-343E-4125-A7E3-D3DE37ED3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC54521-2941-4AC5-8FD7-3C6EB9FD5FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="16" activeTab="25" xr2:uid="{111DD76A-4332-453F-8E77-8C809D291AB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{111DD76A-4332-453F-8E77-8C809D291AB1}"/>
   </bookViews>
   <sheets>
     <sheet name=" Q-1(1)" sheetId="4" r:id="rId1"/>
@@ -1678,6 +1678,37 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1951,42 +1982,11 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5521,7 +5521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CBC1CB-8716-43D1-B72A-A8CA1E0D1212}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
@@ -5531,60 +5531,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="F4" s="96" t="s">
+      <c r="B4" s="108"/>
+      <c r="F4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="96"/>
+      <c r="G4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
@@ -5593,11 +5593,11 @@
       <c r="B5" s="52">
         <v>50</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="106">
         <f>AVERAGE(B5:B8)</f>
         <v>58.75</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="106"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -5616,10 +5616,10 @@
       <c r="B7" s="52">
         <v>55</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="96"/>
+      <c r="G7" s="109"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
@@ -5628,28 +5628,28 @@
       <c r="B8" s="52">
         <v>70</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="106">
         <f>MEDIAN(B5:B8)</f>
         <v>57.5</v>
       </c>
-      <c r="G8" s="93"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="96"/>
+      <c r="G10" s="109"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F11" s="93" t="e">
+      <c r="F11" s="106" t="e">
         <f>_xlfn.MODE.SNGL(B5:B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5682,81 +5682,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6177,64 +6177,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
       <c r="L3" s="24" t="s">
         <v>68</v>
       </c>
@@ -6617,10 +6617,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="139"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="2"/>
       <c r="E15" s="28" t="s">
         <v>12</v>
@@ -6631,11 +6631,11 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="138">
+      <c r="B16" s="151">
         <f>_xlfn.MODE.SNGL(A4:J13)</f>
         <v>31</v>
       </c>
-      <c r="C16" s="138"/>
+      <c r="C16" s="151"/>
       <c r="D16" s="2"/>
       <c r="E16" s="28" t="s">
         <v>13</v>
@@ -6646,39 +6646,39 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="138">
+      <c r="B18" s="151">
         <f>MEDIAN(A4:J13)</f>
         <v>35</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="151"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="138">
+      <c r="B20" s="151">
         <f>F15-F16</f>
         <v>18</v>
       </c>
-      <c r="C20" s="138"/>
+      <c r="C20" s="151"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6724,64 +6724,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="23"/>
       <c r="L3" s="29" t="s">
         <v>68</v>
@@ -7034,10 +7034,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="2"/>
       <c r="E11" s="33" t="s">
         <v>12</v>
@@ -7048,11 +7048,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="143">
+      <c r="B12" s="156">
         <f>_xlfn.MODE.SNGL(A4:J8)</f>
         <v>40</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="156"/>
       <c r="D12" s="2"/>
       <c r="E12" s="33" t="s">
         <v>13</v>
@@ -7063,39 +7063,39 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="142"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="143">
+      <c r="B14" s="156">
         <f>MEDIAN(A4:J8)</f>
         <v>50</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="143">
+      <c r="B16" s="156">
         <f>F11-F12</f>
         <v>45</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="156"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -7133,50 +7133,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -7243,19 +7243,19 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="148">
+      <c r="F16" s="161">
         <f>MAX(B5:B11)</f>
         <v>45</v>
       </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7279,64 +7279,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
@@ -7683,11 +7683,11 @@
         <v>70</v>
       </c>
       <c r="F16" s="37"/>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
       <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7703,12 +7703,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="37"/>
-      <c r="G17" s="148">
+      <c r="G17" s="161">
         <f>MAX(A5:J14)</f>
         <v>5</v>
       </c>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7825,64 +7825,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="44">
@@ -8161,64 +8161,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="44">
@@ -8251,10 +8251,10 @@
       <c r="J4" s="44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="148"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -8287,11 +8287,11 @@
       <c r="J5" s="44">
         <v>0.3</v>
       </c>
-      <c r="L5" s="143">
+      <c r="L5" s="156">
         <f>SKEW(A4:J8)</f>
         <v>5.4546017084340551E-2</v>
       </c>
-      <c r="M5" s="143"/>
+      <c r="M5" s="156"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
@@ -8324,10 +8324,10 @@
       <c r="J6" s="44">
         <v>0.7</v>
       </c>
-      <c r="L6" s="148" t="s">
+      <c r="L6" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="148"/>
+      <c r="M6" s="161"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
@@ -8360,11 +8360,11 @@
       <c r="J7" s="44">
         <v>2.5</v>
       </c>
-      <c r="L7" s="143">
+      <c r="L7" s="156">
         <f>KURT(A4:J8)</f>
         <v>-1.3042496425917365</v>
       </c>
-      <c r="M7" s="143"/>
+      <c r="M7" s="156"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
@@ -8422,64 +8422,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
@@ -8512,10 +8512,10 @@
       <c r="J4" s="42">
         <v>3.9</v>
       </c>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="148"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -8548,11 +8548,11 @@
       <c r="J5" s="42">
         <v>3.7</v>
       </c>
-      <c r="L5" s="157">
+      <c r="L5" s="170">
         <f>SKEW(A4:J13)</f>
         <v>0.22402536454542335</v>
       </c>
-      <c r="M5" s="157"/>
+      <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
@@ -8585,10 +8585,10 @@
       <c r="J6" s="42">
         <v>3.4</v>
       </c>
-      <c r="L6" s="148" t="s">
+      <c r="L6" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="148"/>
+      <c r="M6" s="161"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
@@ -8621,11 +8621,11 @@
       <c r="J7" s="42">
         <v>3.9</v>
       </c>
-      <c r="L7" s="157">
+      <c r="L7" s="170">
         <f>KURT(A4:J13)</f>
         <v>-0.93120912452529181</v>
       </c>
-      <c r="M7" s="157"/>
+      <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
@@ -8835,68 +8835,68 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="L4" s="147" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="L4" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="147"/>
+      <c r="M4" s="160"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
@@ -8929,11 +8929,11 @@
       <c r="J5" s="41">
         <v>3</v>
       </c>
-      <c r="L5" s="93">
+      <c r="L5" s="106">
         <f>SKEW(A5:J14)</f>
         <v>-0.21090973977304461</v>
       </c>
-      <c r="M5" s="93"/>
+      <c r="M5" s="106"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
@@ -8966,10 +8966,10 @@
       <c r="J6" s="41">
         <v>3</v>
       </c>
-      <c r="L6" s="147" t="s">
+      <c r="L6" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="147"/>
+      <c r="M6" s="160"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
@@ -9002,11 +9002,11 @@
       <c r="J7" s="41">
         <v>3</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="106">
         <f>KURT(A5:J14)</f>
         <v>-0.74525627211662515</v>
       </c>
-      <c r="M7" s="93"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -9256,68 +9256,68 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="L3" s="164" t="s">
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="L3" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="164"/>
+      <c r="M3" s="177"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="65">
@@ -9350,11 +9350,11 @@
       <c r="J4" s="65">
         <v>380</v>
       </c>
-      <c r="L4" s="161">
+      <c r="L4" s="174">
         <f>KURT(A4:J13)</f>
         <v>-1.0374244845101974</v>
       </c>
-      <c r="M4" s="161"/>
+      <c r="M4" s="174"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
@@ -9387,10 +9387,10 @@
       <c r="J5" s="65">
         <v>290</v>
       </c>
-      <c r="L5" s="164" t="s">
+      <c r="L5" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="164"/>
+      <c r="M5" s="177"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
@@ -9423,11 +9423,11 @@
       <c r="J6" s="65">
         <v>290</v>
       </c>
-      <c r="L6" s="161">
+      <c r="L6" s="174">
         <f>SKEW(A4:J13)</f>
         <v>0.2092186247974063</v>
       </c>
-      <c r="M6" s="161"/>
+      <c r="M6" s="174"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
@@ -9681,44 +9681,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="116"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -9745,20 +9745,20 @@
       <c r="A4" s="6">
         <v>15</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="110">
         <f>AVERAGE(A4:A23)</f>
         <v>17</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -9771,20 +9771,20 @@
       <c r="A7" s="7">
         <v>25</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>15</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="110">
         <f>MEDIAN(A4:A23)</f>
         <v>15</v>
       </c>
-      <c r="E8" s="97"/>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -9797,20 +9797,20 @@
       <c r="A10" s="7">
         <v>30</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>20</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="110">
         <f>_xlfn.MODE.SNGL(A4:A23)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="97"/>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -9903,64 +9903,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="167"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="180"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="170"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="173"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="186"/>
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
@@ -10410,64 +10410,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
@@ -10929,64 +10929,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="180"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
@@ -11466,64 +11466,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="194" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
       <c r="K3" s="64"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
@@ -12062,56 +12062,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="183"/>
+      <c r="B3" s="196"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
@@ -12120,11 +12120,11 @@
       <c r="B4" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="93" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12135,13 +12135,13 @@
       <c r="B5" s="92">
         <v>50</v>
       </c>
-      <c r="F5" s="185" t="s">
+      <c r="F5" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="185">
+      <c r="G5" s="94">
         <v>1</v>
       </c>
-      <c r="H5" s="185"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
@@ -12150,13 +12150,13 @@
       <c r="B6" s="92">
         <v>55</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="186">
+      <c r="G6" s="95">
         <v>0.99921031003664817</v>
       </c>
-      <c r="H6" s="186">
+      <c r="H6" s="95">
         <v>1</v>
       </c>
     </row>
@@ -12265,209 +12265,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="188">
+      <c r="B4" s="96">
         <v>45</v>
       </c>
-      <c r="C4" s="188">
+      <c r="C4" s="96">
         <v>47</v>
       </c>
-      <c r="D4" s="188">
+      <c r="D4" s="96">
         <v>48</v>
       </c>
-      <c r="E4" s="188">
+      <c r="E4" s="96">
         <v>50</v>
       </c>
-      <c r="F4" s="188">
+      <c r="F4" s="96">
         <v>52</v>
       </c>
-      <c r="G4" s="188">
+      <c r="G4" s="96">
         <v>53</v>
       </c>
-      <c r="H4" s="188">
+      <c r="H4" s="96">
         <v>55</v>
       </c>
-      <c r="I4" s="188">
+      <c r="I4" s="96">
         <v>56</v>
       </c>
-      <c r="J4" s="188">
+      <c r="J4" s="96">
         <v>58</v>
       </c>
-      <c r="K4" s="188">
+      <c r="K4" s="96">
         <v>60</v>
       </c>
-      <c r="L4" s="188">
+      <c r="L4" s="96">
         <v>62</v>
       </c>
-      <c r="M4" s="188">
+      <c r="M4" s="96">
         <v>64</v>
       </c>
-      <c r="N4" s="188">
+      <c r="N4" s="96">
         <v>65</v>
       </c>
-      <c r="O4" s="188">
+      <c r="O4" s="96">
         <v>67</v>
       </c>
-      <c r="P4" s="188">
+      <c r="P4" s="96">
         <v>69</v>
       </c>
-      <c r="Q4" s="188">
+      <c r="Q4" s="96">
         <v>70</v>
       </c>
-      <c r="R4" s="188">
+      <c r="R4" s="96">
         <v>72</v>
       </c>
-      <c r="S4" s="188">
+      <c r="S4" s="96">
         <v>74</v>
       </c>
-      <c r="T4" s="188">
+      <c r="T4" s="96">
         <v>76</v>
       </c>
-      <c r="U4" s="188">
+      <c r="U4" s="96">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="188">
+      <c r="B5" s="96">
         <v>52</v>
       </c>
-      <c r="C5" s="188">
+      <c r="C5" s="96">
         <v>54</v>
       </c>
-      <c r="D5" s="188">
+      <c r="D5" s="96">
         <v>55</v>
       </c>
-      <c r="E5" s="188">
+      <c r="E5" s="96">
         <v>57</v>
       </c>
-      <c r="F5" s="188">
+      <c r="F5" s="96">
         <v>59</v>
       </c>
-      <c r="G5" s="188">
+      <c r="G5" s="96">
         <v>60</v>
       </c>
-      <c r="H5" s="188">
+      <c r="H5" s="96">
         <v>61</v>
       </c>
-      <c r="I5" s="188">
+      <c r="I5" s="96">
         <v>62</v>
       </c>
-      <c r="J5" s="188">
+      <c r="J5" s="96">
         <v>64</v>
       </c>
-      <c r="K5" s="188">
+      <c r="K5" s="96">
         <v>66</v>
       </c>
-      <c r="L5" s="188">
+      <c r="L5" s="96">
         <v>67</v>
       </c>
-      <c r="M5" s="188">
+      <c r="M5" s="96">
         <v>69</v>
       </c>
-      <c r="N5" s="188">
+      <c r="N5" s="96">
         <v>71</v>
       </c>
-      <c r="O5" s="188">
+      <c r="O5" s="96">
         <v>73</v>
       </c>
-      <c r="P5" s="188">
+      <c r="P5" s="96">
         <v>74</v>
       </c>
-      <c r="Q5" s="188">
+      <c r="Q5" s="96">
         <v>76</v>
       </c>
-      <c r="R5" s="188">
+      <c r="R5" s="96">
         <v>78</v>
       </c>
-      <c r="S5" s="188">
+      <c r="S5" s="96">
         <v>80</v>
       </c>
-      <c r="T5" s="188">
+      <c r="T5" s="96">
         <v>82</v>
       </c>
-      <c r="U5" s="188">
+      <c r="U5" s="96">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="190"/>
-      <c r="C8" s="190" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="98" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="191">
+      <c r="C9" s="99">
         <f>VARP('Q-5(2)'!$B$4:$U$4)</f>
         <v>96.8</v>
       </c>
-      <c r="D9" s="191"/>
+      <c r="D9" s="99"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="100">
         <v>92.65</v>
       </c>
-      <c r="D10" s="192">
+      <c r="D10" s="100">
         <f>VARP('Q-5(2)'!$B$5:$U$5)</f>
         <v>88.927499999999995</v>
       </c>
@@ -12484,7 +12484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AFE6E6-0C16-4F90-851E-6701F6F8D7C7}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -12496,320 +12496,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="198" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="196" t="s">
+      <c r="F4" s="103" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="194">
+      <c r="A5" s="101">
         <v>10</v>
       </c>
-      <c r="B5" s="194">
+      <c r="B5" s="101">
         <v>60</v>
       </c>
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="197">
+      <c r="E5" s="104">
         <v>1</v>
       </c>
-      <c r="F5" s="197"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="194">
+      <c r="A6" s="101">
         <v>12</v>
       </c>
-      <c r="B6" s="194">
+      <c r="B6" s="101">
         <v>65</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="198">
+      <c r="E6" s="105">
         <v>0.97729508301867352</v>
       </c>
-      <c r="F6" s="198">
+      <c r="F6" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="194">
+      <c r="A7" s="101">
         <v>15</v>
       </c>
-      <c r="B7" s="194">
+      <c r="B7" s="101">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="194">
+      <c r="A8" s="101">
         <v>18</v>
       </c>
-      <c r="B8" s="194">
+      <c r="B8" s="101">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="194">
+      <c r="A9" s="101">
         <v>20</v>
       </c>
-      <c r="B9" s="194">
+      <c r="B9" s="101">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="194">
+      <c r="A10" s="101">
         <v>22</v>
       </c>
-      <c r="B10" s="194">
+      <c r="B10" s="101">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="194">
+      <c r="A11" s="101">
         <v>25</v>
       </c>
-      <c r="B11" s="194">
+      <c r="B11" s="101">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="194">
+      <c r="A12" s="101">
         <v>28</v>
       </c>
-      <c r="B12" s="194">
+      <c r="B12" s="101">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="194">
+      <c r="A13" s="101">
         <v>30</v>
       </c>
-      <c r="B13" s="194">
+      <c r="B13" s="101">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="194">
+      <c r="A14" s="101">
         <v>32</v>
       </c>
-      <c r="B14" s="194">
+      <c r="B14" s="101">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="194">
+      <c r="A15" s="101">
         <v>35</v>
       </c>
-      <c r="B15" s="194">
+      <c r="B15" s="101">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="194">
+      <c r="A16" s="101">
         <v>38</v>
       </c>
-      <c r="B16" s="194">
+      <c r="B16" s="101">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="194">
+      <c r="A17" s="101">
         <v>40</v>
       </c>
-      <c r="B17" s="194">
+      <c r="B17" s="101">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="194">
+      <c r="A18" s="101">
         <v>42</v>
       </c>
-      <c r="B18" s="194">
+      <c r="B18" s="101">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="194">
+      <c r="A19" s="101">
         <v>45</v>
       </c>
-      <c r="B19" s="194">
+      <c r="B19" s="101">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="194">
+      <c r="A20" s="101">
         <v>48</v>
       </c>
-      <c r="B20" s="194">
+      <c r="B20" s="101">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="194">
+      <c r="A21" s="101">
         <v>50</v>
       </c>
-      <c r="B21" s="194">
+      <c r="B21" s="101">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="194">
+      <c r="A22" s="101">
         <v>52</v>
       </c>
-      <c r="B22" s="194">
+      <c r="B22" s="101">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="194">
+      <c r="A23" s="101">
         <v>55</v>
       </c>
-      <c r="B23" s="194">
+      <c r="B23" s="101">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="194">
+      <c r="A24" s="101">
         <v>58</v>
       </c>
-      <c r="B24" s="194">
+      <c r="B24" s="101">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="194">
+      <c r="A25" s="101">
         <v>60</v>
       </c>
-      <c r="B25" s="194">
+      <c r="B25" s="101">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="194">
+      <c r="A26" s="101">
         <v>62</v>
       </c>
-      <c r="B26" s="194">
+      <c r="B26" s="101">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="194">
+      <c r="A27" s="101">
         <v>65</v>
       </c>
-      <c r="B27" s="194">
+      <c r="B27" s="101">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="194">
+      <c r="A28" s="101">
         <v>68</v>
       </c>
-      <c r="B28" s="194">
+      <c r="B28" s="101">
         <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="194">
+      <c r="A29" s="101">
         <v>70</v>
       </c>
-      <c r="B29" s="194">
+      <c r="B29" s="101">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="194">
+      <c r="A30" s="101">
         <v>72</v>
       </c>
-      <c r="B30" s="194">
+      <c r="B30" s="101">
         <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="194">
+      <c r="A31" s="101">
         <v>75</v>
       </c>
-      <c r="B31" s="194">
+      <c r="B31" s="101">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="194">
+      <c r="A32" s="101">
         <v>78</v>
       </c>
-      <c r="B32" s="194">
+      <c r="B32" s="101">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="194">
+      <c r="A33" s="101">
         <v>80</v>
       </c>
-      <c r="B33" s="194">
+      <c r="B33" s="101">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="194">
+      <c r="A34" s="101">
         <v>82</v>
       </c>
-      <c r="B34" s="194">
+      <c r="B34" s="101">
         <v>122</v>
       </c>
     </row>
@@ -12836,65 +12836,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="108"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="119">
         <f>AVERAGE(A5:A54)</f>
         <v>3.56</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -12935,10 +12935,10 @@
       <c r="A7" s="54">
         <v>5</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="109"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -12958,11 +12958,11 @@
       <c r="A8" s="54">
         <v>4</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="123">
         <f>MEDIAN(A5:A54)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -13003,10 +13003,10 @@
       <c r="A10" s="54">
         <v>8</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -13026,11 +13026,11 @@
       <c r="A11" s="54">
         <v>3</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="119">
         <f>_xlfn.MODE.SNGL(A5:A54)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -13338,63 +13338,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="111"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -13419,11 +13419,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="112">
+      <c r="F5" s="125">
         <f>O4-O5</f>
         <v>35</v>
       </c>
-      <c r="G5" s="112"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -13469,10 +13469,10 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -13492,11 +13492,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="112">
+      <c r="F8" s="125">
         <f>_xlfn.VAR.S(B5:B14)</f>
         <v>123.33333333333333</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="125"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -13558,10 +13558,10 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="111"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -13581,11 +13581,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="112">
+      <c r="F12" s="125">
         <f>_xlfn.STDEV.S(B5:B14)</f>
         <v>11.105554165971787</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -13669,76 +13669,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="F5" s="119" t="s">
+      <c r="B5" s="131"/>
+      <c r="F5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="119"/>
+      <c r="G5" s="132"/>
       <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
@@ -13754,11 +13754,11 @@
       <c r="B6" s="57">
         <v>500</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="129">
         <f>K5-K6</f>
         <v>400</v>
       </c>
-      <c r="G6" s="116"/>
+      <c r="G6" s="129"/>
       <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
@@ -13784,10 +13784,10 @@
       <c r="B8" s="57">
         <v>400</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="119"/>
+      <c r="G8" s="132"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
@@ -13796,11 +13796,11 @@
       <c r="B9" s="57">
         <v>600</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="133">
         <f>_xlfn.VAR.S(B6:B35)</f>
         <v>13163.793103448275</v>
       </c>
-      <c r="G9" s="120"/>
+      <c r="G9" s="133"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
@@ -13819,10 +13819,10 @@
       <c r="B11" s="57">
         <v>750</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="119"/>
+      <c r="G11" s="132"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
@@ -13831,11 +13831,11 @@
       <c r="B12" s="57">
         <v>650</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="129">
         <f>_xlfn.STDEV.S(B6:B35)</f>
         <v>114.73357443855863</v>
       </c>
-      <c r="G12" s="116"/>
+      <c r="G12" s="129"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
@@ -14053,50 +14053,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -14124,10 +14124,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="122"/>
+      <c r="F4" s="135"/>
       <c r="K4" s="16" t="s">
         <v>12</v>
       </c>
@@ -14140,11 +14140,11 @@
       <c r="A5" s="59">
         <v>3</v>
       </c>
-      <c r="E5" s="121">
+      <c r="E5" s="134">
         <f>L4-L5</f>
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
+      <c r="F5" s="134"/>
       <c r="K5" s="16" t="s">
         <v>13</v>
       </c>
@@ -14162,20 +14162,20 @@
       <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="122"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>4</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="134">
         <f>_xlfn.VAR.S(A5:A54)</f>
         <v>2.3363265306122454</v>
       </c>
-      <c r="F8" s="121"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
@@ -14186,20 +14186,20 @@
       <c r="A10" s="59">
         <v>2</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="122"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>3</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="134">
         <f>_xlfn.STDEV.S(A5:A54)</f>
         <v>1.5285046714394579</v>
       </c>
-      <c r="F11" s="121"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
@@ -14445,63 +14445,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="127"/>
+      <c r="B4" s="140"/>
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="111"/>
+      <c r="H4" s="124"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -14520,11 +14520,11 @@
       <c r="B5" s="55">
         <v>120</v>
       </c>
-      <c r="G5" s="124">
+      <c r="G5" s="137">
         <f>AVERAGE(B5:B16)</f>
         <v>132.5</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="137"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -14558,10 +14558,10 @@
       <c r="B7" s="55">
         <v>110</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="111"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -14575,11 +14575,11 @@
       <c r="B8" s="55">
         <v>135</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="137">
         <f>M4-M5</f>
         <v>45</v>
       </c>
-      <c r="H8" s="124"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -14679,69 +14679,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="142"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>8</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="143">
         <f>AVERAGE(A5:A54)</f>
         <v>7.5</v>
       </c>
-      <c r="F5" s="130"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="60">
@@ -14754,20 +14754,20 @@
       <c r="A7" s="60">
         <v>9</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="129"/>
+      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>6</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="143">
         <f>_xlfn.STDEV.S(A5:A54)</f>
         <v>1.0350983390135313</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
@@ -15026,86 +15026,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
@@ -15139,10 +15139,10 @@
         <v>22</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="108"/>
+      <c r="M5" s="121"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="10" t="s">
@@ -15185,11 +15185,11 @@
         <v>27</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="131">
+      <c r="L6" s="144">
         <f>AVERAGE(A5:J14)</f>
         <v>16.72</v>
       </c>
-      <c r="M6" s="131"/>
+      <c r="M6" s="144"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="10" t="s">
@@ -15271,10 +15271,10 @@
         <v>11</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="108"/>
+      <c r="M8" s="121"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -15312,11 +15312,11 @@
         <v>17</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="131">
+      <c r="L9" s="144">
         <f>Q5-Q6</f>
         <v>19</v>
       </c>
-      <c r="M9" s="131"/>
+      <c r="M9" s="144"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -15393,10 +15393,10 @@
         <v>17</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="108"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -15434,11 +15434,11 @@
         <v>12</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="131">
+      <c r="L12" s="144">
         <f>_xlfn.STDEV.S(A5:J14)</f>
         <v>4.1635260891400083</v>
       </c>
-      <c r="M12" s="131"/>
+      <c r="M12" s="144"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
